--- a/saved_model/specs/2_h.xlsx
+++ b/saved_model/specs/2_h.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
   <si>
     <t>delay</t>
   </si>
@@ -49,46 +49,46 @@
     <t>n_hidd_layer</t>
   </si>
   <si>
+    <t>20190101</t>
+  </si>
+  <si>
+    <t>20210130</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>61%</t>
+  </si>
+  <si>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>59%</t>
+  </si>
+  <si>
+    <t>12%</t>
+  </si>
+  <si>
+    <t>8%</t>
+  </si>
+  <si>
     <t>20160101</t>
   </si>
   <si>
     <t>20191231</t>
   </si>
   <si>
-    <t>37%</t>
-  </si>
-  <si>
-    <t>45%</t>
-  </si>
-  <si>
-    <t>52%</t>
-  </si>
-  <si>
-    <t>25%</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>4%</t>
-  </si>
-  <si>
-    <t>7%</t>
+    <t>9%</t>
   </si>
   <si>
     <t>5%</t>
   </si>
   <si>
-    <t>17%</t>
-  </si>
-  <si>
-    <t>24%</t>
-  </si>
-  <si>
-    <t>9%</t>
-  </si>
-  <si>
     <t>11%</t>
+  </si>
+  <si>
+    <t>36%</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5549915397631133</v>
+        <v>0.5537604456824513</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -490,10 +490,10 @@
         <v>13</v>
       </c>
       <c r="J2">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.5417529330572809</v>
+        <v>0.5606617647058824</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -525,10 +525,10 @@
         <v>14</v>
       </c>
       <c r="J3">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -536,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.5424641148325359</v>
+        <v>0.5778025655326269</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -557,13 +557,13 @@
         <v>0.05</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J4">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.5746268656716418</v>
+        <v>0.5887276785714286</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -592,10 +592,10 @@
         <v>0.05</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J5">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -606,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.56738768718802</v>
+        <v>0.5991066443327749</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -627,10 +627,10 @@
         <v>0.05</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J6">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -641,7 +641,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.5934959349593496</v>
+        <v>0.605586592178771</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -662,13 +662,13 @@
         <v>0.05</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -676,7 +676,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.6094420600858369</v>
+        <v>0.5975164353542732</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -697,10 +697,10 @@
         <v>0.05</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -711,7 +711,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.6551724137931034</v>
+        <v>0.6211832061068703</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -732,13 +732,13 @@
         <v>0.05</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -746,7 +746,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.6433566433566433</v>
+        <v>0.6435185185185185</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -767,13 +767,13 @@
         <v>0.05</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J10">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -781,7 +781,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.6196428571428572</v>
+        <v>0.6159014557670772</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -802,13 +802,13 @@
         <v>0.05</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J11">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -816,7 +816,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.6394557823129252</v>
+        <v>0.6179271708683474</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -837,13 +837,13 @@
         <v>0.05</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J12">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -851,7 +851,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.5886243386243386</v>
+        <v>0.6293706293706294</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -872,13 +872,13 @@
         <v>0.05</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J13">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -886,7 +886,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.621160409556314</v>
+        <v>0.6141334828939988</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -907,13 +907,13 @@
         <v>0.05</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J14">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -921,7 +921,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.6912280701754386</v>
+        <v>0.5618153364632238</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -942,13 +942,13 @@
         <v>0.05</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J15">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -959,10 +959,10 @@
         <v>0.688622754491018</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>30</v>
@@ -977,7 +977,7 @@
         <v>0.05</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J16">
         <v>12</v>
@@ -994,10 +994,10 @@
         <v>0.6961325966850829</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>30</v>
@@ -1012,7 +1012,7 @@
         <v>0.05</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J17">
         <v>12</v>
